--- a/biology/Botanique/Strychnos_guianensis/Strychnos_guianensis.xlsx
+++ b/biology/Botanique/Strychnos_guianensis/Strychnos_guianensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Strychnos guianensis (J.B. Aublet) Martius est une espèce de plantes à fleurs du genre Strychnos et de la famille des Loganiaceae (famille du vomiquier).
 Il s'agit d'une des espèces servant à la fabrication du curare chez des populations amazoniennes.
 Aublet avait initialement donnée pour nom à cet arbuste le nom Galibi Rouhamon, que Schreber remplaça par Lasiostoma (signifiant « bouche velue » en grec). 
 Jussieu a réuni le  genre Rouhamon au genre Caniram[réf. nécessaire].
-En Guyane, il est connu sous les noms de Curare (Français), Wɨlali, Lali (Wayãpi), Ihip iβatye (Palikur), Ulalimö (Wayana), Urari (Portugais)[2], Rouhabamon (kali'na, Karib)[3].
-Ailleurs, on emploie les noms de Urali, Duru duru, Anzuelo casha[4].
+En Guyane, il est connu sous les noms de Curare (Français), Wɨlali, Lali (Wayãpi), Ihip iβatye (Palikur), Ulalimö (Wayana), Urari (Portugais), Rouhabamon (kali'na, Karib).
+Ailleurs, on emploie les noms de Urali, Duru duru, Anzuelo casha.
 </t>
         </is>
       </c>
@@ -516,7 +528,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Strychnos guianensis est une liane ligneuse ou un arbuste grimpant (forme plutôt juvénile), à branches cylindriques, velues de poils de couleur rouille. Les rameaux opposés, sont terminés par une vrille simple 
 Les nœuds foliaires, portent des lignes interpétiolaires avec des bourgeons axillaires dressés ou ascendants, pubescents, parfois peu denses, avec des trichomes longs de 0,5 à 2 mm.
@@ -533,7 +547,7 @@
 La corolle en entonnoir quadrifide, est de couleur blanche, avec un tube long d'environ 1,5-5 mm, et des lobes d'environ 5-6 mm, glabrescent à l'extérieur, papilleux au sommet à l'intérieur, et à poils laineux dans la gorge.
 Les étamines sont exsertes, longues de ± 3 mm. 
 Le style est exsert, tronqué, et long d'environ 7 mm.
-Le fruit est une baie jaune à orange, d'environ 1,5 cm de diamètre, et contenant deux graines[5],[3].
+Le fruit est une baie jaune à orange, d'environ 1,5 cm de diamètre, et contenant deux graines,.
 </t>
         </is>
       </c>
@@ -562,9 +576,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Strychnos guianensis est une espèce de Strychnos parmi les plus répandues en Amérique du Sud : on le rencontre de la Colombie au Brésil, en passant par le Venezuela, le Guyana, le Suriname, la Guyane, l'Équateur, le Pérou amazonien, la Bolivie[3],[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Strychnos guianensis est une espèce de Strychnos parmi les plus répandues en Amérique du Sud : on le rencontre de la Colombie au Brésil, en passant par le Venezuela, le Guyana, le Suriname, la Guyane, l'Équateur, le Pérou amazonien, la Bolivie,.
 </t>
         </is>
       </c>
@@ -593,9 +609,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Strychnos guianensis pousse au Venezuela dans les forêts riveraines, les forêts sempervirentes de basse altitude, et dans la lisière des marécages à palmiers bâche, autour de 50–1 000 m d'altitude[5]. Il croît aux bords des cours d'eau en Guyane.  
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Strychnos guianensis pousse au Venezuela dans les forêts riveraines, les forêts sempervirentes de basse altitude, et dans la lisière des marécages à palmiers bâche, autour de 50–1 000 m d'altitude. Il croît aux bords des cours d'eau en Guyane.  
 </t>
         </is>
       </c>
@@ -624,9 +642,11 @@
           <t>Usage</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Strychnos guianensis est largement utilisé pour la fabrication de curare comme poison de chasse[5], notamment en Guyane chez les Tiriyó, et les Wayãpi. D'autres populations amérindiennes de l'Est du plateau des Guyanes (Wayana, Apalai, Émerillon, voire le Kali'na) l'utilisaient mais ne savaient pas le fabriquer[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Strychnos guianensis est largement utilisé pour la fabrication de curare comme poison de chasse, notamment en Guyane chez les Tiriyó, et les Wayãpi. D'autres populations amérindiennes de l'Est du plateau des Guyanes (Wayana, Apalai, Émerillon, voire le Kali'na) l'utilisaient mais ne savaient pas le fabriquer.
 </t>
         </is>
       </c>
@@ -655,11 +675,13 @@
           <t>Composition chimique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En plus des composants déjà connus de l'écorce des Strychnos guianensis (C-alcaloïde O, fluorocurine, mavacurine, macusine B et C-profluorocurine[6],[7],[8],[9],[10],[11],[12]), de nouveaux alcaloïdes ont été découverts en 2001 : le 9-methoxy-Nb-methylgeissoschizol, 5′,6′-dehydroguiachrysine et 5′,6′-dehydroguiaflavine, guiaflavine, guiachrysine[13].
-Ces alcaloïdes présentent des effets antagonistes aux récepteurs nicotiniques et à acétylcholine humains[14].
-Strychnos guianensis contient aussi des lignanes[15].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En plus des composants déjà connus de l'écorce des Strychnos guianensis (C-alcaloïde O, fluorocurine, mavacurine, macusine B et C-profluorocurine), de nouveaux alcaloïdes ont été découverts en 2001 : le 9-methoxy-Nb-methylgeissoschizol, 5′,6′-dehydroguiachrysine et 5′,6′-dehydroguiaflavine, guiaflavine, guiachrysine.
+Ces alcaloïdes présentent des effets antagonistes aux récepteurs nicotiniques et à acétylcholine humains.
+Strychnos guianensis contient aussi des lignanes.
 </t>
         </is>
       </c>
@@ -688,9 +710,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose le protologue suivant[16] : 
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose le protologue suivant : 
 « ROUHAMON Guianenſis. (Tabula 36.)
 Frutex trunco ſeptem, vel octo-pedali, ramos plures oppoſitos, nodoſos, longiſſimos, ſuprà arbore ſparſos emittente. Folia oppoſita, ſubſeſſilia, ſupernè pallide-virentia, infernè ſubcinerea, trinervia, ſubrotunda, acuta, integerrima. Flores corymboſi. Corymbis ſubſeſſilibus, axillaribus, oppoſitis. Corolla alba. Capsula flaveſcens. Ex axilla folii per intervalla quandóque cirrhus erigitur oblongus, rectus, versùs apicem incurvus, &amp; incraſſatus, cujus ope ramulculis hujus, &amp; aliorum arborum ſæpiùs adhæret.
 Florebat, &amp; fructum ferebat Octobri &amp; Novembri.
